--- a/testdata/cubecart.xlsx
+++ b/testdata/cubecart.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TUERXUN\IdeaProjects\SeleniumTestAutomation\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D22940-3159-425D-8AF1-E85376B43629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{341C3D00-0E83-455B-8E89-A9AC842448C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A6342CD1-2753-409C-AB71-31D10EA50E00}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A6342CD1-2753-409C-AB71-31D10EA50E00}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="addProduct" sheetId="2" r:id="rId2"/>
+    <sheet name="Product" sheetId="2" r:id="rId2"/>
+    <sheet name="Review" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>testautomation</t>
   </si>
@@ -101,13 +124,55 @@
   </si>
   <si>
     <t>By Percent</t>
+  </si>
+  <si>
+    <t>reviewerName</t>
+  </si>
+  <si>
+    <t>Tursun</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>001@mail.com</t>
+  </si>
+  <si>
+    <t>003@mail.com</t>
+  </si>
+  <si>
+    <t>002@mail.com</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>It is perfect</t>
+  </si>
+  <si>
+    <t>It is new</t>
+  </si>
+  <si>
+    <t>It is good</t>
+  </si>
+  <si>
+    <t>004@mail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +196,15 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,10 +223,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -162,8 +237,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -538,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{204B27DF-5AD1-4560-AAC2-E4742DF3E14C}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,4 +693,104 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF524DE9-F24C-4154-A00F-895C5AFB58F4}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="str" cm="1">
+        <f t="array" ref="A1:D1">Product!A1:D1</f>
+        <v>productName</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Laptop-TRS01</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Laptop-TRS02</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Laptop-TRS03</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{5184C445-759A-400B-95C2-34F468A6BB42}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{F448C17E-13E5-4DC0-87E9-531C1A9AF5E0}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{4BBC6D22-AEE4-4ECC-B0E5-78D990F15055}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{E79B8AE9-58C4-4482-97BA-F9EB24DB8034}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
+</worksheet>
 </file>